--- a/biology/Botanique/Ail_des_vignes/Ail_des_vignes.xlsx
+++ b/biology/Botanique/Ail_des_vignes/Ail_des_vignes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium vineale
 L'ail des vignes (Allium vineale) est une espèce de plantes à fleurs de la famille des Amaryllidaceae.
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée bulbeuse vivace de 30-80 cm à floraison estivale, glabre, à bulbe ovoïde entouré de nombreux bulbilles, à forte odeur alliacée. 
 Les feuilles sont subcylindriques, creuses, à sillon étroit en dessus, glauques. 
 La tige est cylindrique, pleine, feuillée jusqu'au milieu 
 La tête porte des bulbilles rosées à bordeaux, généralement plus nombreux que les fleurs (il arrive souvent qu'il n'y ait que des bulbilles). Au fil du temps, ces bulbilles s’allongent en une feuille verte cylindrique avant de tomber après la mort de la tige.
 Les fleurs sont rose pâle ou blanchâtres, peu nombreuses, en tête globuleuse serrée, souvent toute bulbillifère et aux étamines saillantes.
-Outre ces bulbilles aériennes, la plante en produit aussi sous terre, où elles sont enveloppées dans des tuniques très dures semblables à celles des gousses d'ail[2].
+Outre ces bulbilles aériennes, la plante en produit aussi sous terre, où elles sont enveloppées dans des tuniques très dures semblables à celles des gousses d'ail.
 La plante porte un bulbe d'où sortent des feuilles linéaires, tubulaires.
 </t>
         </is>
@@ -549,7 +563,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Type d'inflorescence : ombelle simple, fleur rose à six pétales
@@ -585,9 +601,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ail des vignes apprécie les lieux sablonneux cultivés ou incultes, dans presque toute la France et en Corse. En Suisse, on le trouve parmi les buissons, dans les vignes et les vergers, aux étages collinéen et montagnard[3]. Il est présent en Europe centrale et méridionale mais aussi en Syrie et en Amérique boréale.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ail des vignes apprécie les lieux sablonneux cultivés ou incultes, dans presque toute la France et en Corse. En Suisse, on le trouve parmi les buissons, dans les vignes et les vergers, aux étages collinéen et montagnard. Il est présent en Europe centrale et méridionale mais aussi en Syrie et en Amérique boréale.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles et les bulbilles s'utilisent en condiment comme l'ail cultivé.
 Une confusion avec d'autres espèces d'Allium est sans danger, aucune n'est toxique
@@ -648,7 +668,9 @@
           <t>Propriétés médicinales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ail des vignes est stimulant, diurétique, expectorant et antiseptique comme toutes les autres espèces d'Allium. [réf. nécessaire]
 </t>
